--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFD097-87A9-4750-9590-5804371E32B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,16 +101,16 @@
     <t>OIC - LGMED Chief</t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
-  </si>
-  <si>
     <t>ARIEL O. IGLESIA, CESO III</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
@@ -454,6 +453,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -464,91 +544,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1259,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1271,30 +1270,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1304,11 +1303,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1317,14 +1316,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1333,32 +1332,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1574,114 +1573,114 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFD097-87A9-4750-9590-5804371E32B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB5282-529D-41F0-8295-3F6FA36B65BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,10 +102,10 @@
     <t>OIC - LGMED Chief</t>
   </si>
   <si>
-    <t>Officer-in-Charge</t>
-  </si>
-  <si>
     <t>ARIEL O. IGLESIA, CESO III</t>
+  </si>
+  <si>
+    <t>Regional Director</t>
   </si>
 </sst>
 </file>
@@ -532,6 +532,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -543,12 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:QU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection sqref="A1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,392 +878,14 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="257" max="257" width="15.28515625" customWidth="1"/>
-    <col min="258" max="258" width="16" customWidth="1"/>
-    <col min="259" max="259" width="42.5703125" customWidth="1"/>
-    <col min="260" max="260" width="12.7109375" customWidth="1"/>
-    <col min="261" max="261" width="17.140625" customWidth="1"/>
-    <col min="262" max="262" width="18.28515625" customWidth="1"/>
-    <col min="513" max="513" width="15.28515625" customWidth="1"/>
-    <col min="514" max="514" width="16" customWidth="1"/>
-    <col min="515" max="515" width="42.5703125" customWidth="1"/>
-    <col min="516" max="516" width="12.7109375" customWidth="1"/>
-    <col min="517" max="517" width="17.140625" customWidth="1"/>
-    <col min="518" max="518" width="18.28515625" customWidth="1"/>
-    <col min="769" max="769" width="15.28515625" customWidth="1"/>
-    <col min="770" max="770" width="16" customWidth="1"/>
-    <col min="771" max="771" width="42.5703125" customWidth="1"/>
-    <col min="772" max="772" width="12.7109375" customWidth="1"/>
-    <col min="773" max="773" width="17.140625" customWidth="1"/>
-    <col min="774" max="774" width="18.28515625" customWidth="1"/>
-    <col min="1025" max="1025" width="15.28515625" customWidth="1"/>
-    <col min="1026" max="1026" width="16" customWidth="1"/>
-    <col min="1027" max="1027" width="42.5703125" customWidth="1"/>
-    <col min="1028" max="1028" width="12.7109375" customWidth="1"/>
-    <col min="1029" max="1029" width="17.140625" customWidth="1"/>
-    <col min="1030" max="1030" width="18.28515625" customWidth="1"/>
-    <col min="1281" max="1281" width="15.28515625" customWidth="1"/>
-    <col min="1282" max="1282" width="16" customWidth="1"/>
-    <col min="1283" max="1283" width="42.5703125" customWidth="1"/>
-    <col min="1284" max="1284" width="12.7109375" customWidth="1"/>
-    <col min="1285" max="1285" width="17.140625" customWidth="1"/>
-    <col min="1286" max="1286" width="18.28515625" customWidth="1"/>
-    <col min="1537" max="1537" width="15.28515625" customWidth="1"/>
-    <col min="1538" max="1538" width="16" customWidth="1"/>
-    <col min="1539" max="1539" width="42.5703125" customWidth="1"/>
-    <col min="1540" max="1540" width="12.7109375" customWidth="1"/>
-    <col min="1541" max="1541" width="17.140625" customWidth="1"/>
-    <col min="1542" max="1542" width="18.28515625" customWidth="1"/>
-    <col min="1793" max="1793" width="15.28515625" customWidth="1"/>
-    <col min="1794" max="1794" width="16" customWidth="1"/>
-    <col min="1795" max="1795" width="42.5703125" customWidth="1"/>
-    <col min="1796" max="1796" width="12.7109375" customWidth="1"/>
-    <col min="1797" max="1797" width="17.140625" customWidth="1"/>
-    <col min="1798" max="1798" width="18.28515625" customWidth="1"/>
-    <col min="2049" max="2049" width="15.28515625" customWidth="1"/>
-    <col min="2050" max="2050" width="16" customWidth="1"/>
-    <col min="2051" max="2051" width="42.5703125" customWidth="1"/>
-    <col min="2052" max="2052" width="12.7109375" customWidth="1"/>
-    <col min="2053" max="2053" width="17.140625" customWidth="1"/>
-    <col min="2054" max="2054" width="18.28515625" customWidth="1"/>
-    <col min="2305" max="2305" width="15.28515625" customWidth="1"/>
-    <col min="2306" max="2306" width="16" customWidth="1"/>
-    <col min="2307" max="2307" width="42.5703125" customWidth="1"/>
-    <col min="2308" max="2308" width="12.7109375" customWidth="1"/>
-    <col min="2309" max="2309" width="17.140625" customWidth="1"/>
-    <col min="2310" max="2310" width="18.28515625" customWidth="1"/>
-    <col min="2561" max="2561" width="15.28515625" customWidth="1"/>
-    <col min="2562" max="2562" width="16" customWidth="1"/>
-    <col min="2563" max="2563" width="42.5703125" customWidth="1"/>
-    <col min="2564" max="2564" width="12.7109375" customWidth="1"/>
-    <col min="2565" max="2565" width="17.140625" customWidth="1"/>
-    <col min="2566" max="2566" width="18.28515625" customWidth="1"/>
-    <col min="2817" max="2817" width="15.28515625" customWidth="1"/>
-    <col min="2818" max="2818" width="16" customWidth="1"/>
-    <col min="2819" max="2819" width="42.5703125" customWidth="1"/>
-    <col min="2820" max="2820" width="12.7109375" customWidth="1"/>
-    <col min="2821" max="2821" width="17.140625" customWidth="1"/>
-    <col min="2822" max="2822" width="18.28515625" customWidth="1"/>
-    <col min="3073" max="3073" width="15.28515625" customWidth="1"/>
-    <col min="3074" max="3074" width="16" customWidth="1"/>
-    <col min="3075" max="3075" width="42.5703125" customWidth="1"/>
-    <col min="3076" max="3076" width="12.7109375" customWidth="1"/>
-    <col min="3077" max="3077" width="17.140625" customWidth="1"/>
-    <col min="3078" max="3078" width="18.28515625" customWidth="1"/>
-    <col min="3329" max="3329" width="15.28515625" customWidth="1"/>
-    <col min="3330" max="3330" width="16" customWidth="1"/>
-    <col min="3331" max="3331" width="42.5703125" customWidth="1"/>
-    <col min="3332" max="3332" width="12.7109375" customWidth="1"/>
-    <col min="3333" max="3333" width="17.140625" customWidth="1"/>
-    <col min="3334" max="3334" width="18.28515625" customWidth="1"/>
-    <col min="3585" max="3585" width="15.28515625" customWidth="1"/>
-    <col min="3586" max="3586" width="16" customWidth="1"/>
-    <col min="3587" max="3587" width="42.5703125" customWidth="1"/>
-    <col min="3588" max="3588" width="12.7109375" customWidth="1"/>
-    <col min="3589" max="3589" width="17.140625" customWidth="1"/>
-    <col min="3590" max="3590" width="18.28515625" customWidth="1"/>
-    <col min="3841" max="3841" width="15.28515625" customWidth="1"/>
-    <col min="3842" max="3842" width="16" customWidth="1"/>
-    <col min="3843" max="3843" width="42.5703125" customWidth="1"/>
-    <col min="3844" max="3844" width="12.7109375" customWidth="1"/>
-    <col min="3845" max="3845" width="17.140625" customWidth="1"/>
-    <col min="3846" max="3846" width="18.28515625" customWidth="1"/>
-    <col min="4097" max="4097" width="15.28515625" customWidth="1"/>
-    <col min="4098" max="4098" width="16" customWidth="1"/>
-    <col min="4099" max="4099" width="42.5703125" customWidth="1"/>
-    <col min="4100" max="4100" width="12.7109375" customWidth="1"/>
-    <col min="4101" max="4101" width="17.140625" customWidth="1"/>
-    <col min="4102" max="4102" width="18.28515625" customWidth="1"/>
-    <col min="4353" max="4353" width="15.28515625" customWidth="1"/>
-    <col min="4354" max="4354" width="16" customWidth="1"/>
-    <col min="4355" max="4355" width="42.5703125" customWidth="1"/>
-    <col min="4356" max="4356" width="12.7109375" customWidth="1"/>
-    <col min="4357" max="4357" width="17.140625" customWidth="1"/>
-    <col min="4358" max="4358" width="18.28515625" customWidth="1"/>
-    <col min="4609" max="4609" width="15.28515625" customWidth="1"/>
-    <col min="4610" max="4610" width="16" customWidth="1"/>
-    <col min="4611" max="4611" width="42.5703125" customWidth="1"/>
-    <col min="4612" max="4612" width="12.7109375" customWidth="1"/>
-    <col min="4613" max="4613" width="17.140625" customWidth="1"/>
-    <col min="4614" max="4614" width="18.28515625" customWidth="1"/>
-    <col min="4865" max="4865" width="15.28515625" customWidth="1"/>
-    <col min="4866" max="4866" width="16" customWidth="1"/>
-    <col min="4867" max="4867" width="42.5703125" customWidth="1"/>
-    <col min="4868" max="4868" width="12.7109375" customWidth="1"/>
-    <col min="4869" max="4869" width="17.140625" customWidth="1"/>
-    <col min="4870" max="4870" width="18.28515625" customWidth="1"/>
-    <col min="5121" max="5121" width="15.28515625" customWidth="1"/>
-    <col min="5122" max="5122" width="16" customWidth="1"/>
-    <col min="5123" max="5123" width="42.5703125" customWidth="1"/>
-    <col min="5124" max="5124" width="12.7109375" customWidth="1"/>
-    <col min="5125" max="5125" width="17.140625" customWidth="1"/>
-    <col min="5126" max="5126" width="18.28515625" customWidth="1"/>
-    <col min="5377" max="5377" width="15.28515625" customWidth="1"/>
-    <col min="5378" max="5378" width="16" customWidth="1"/>
-    <col min="5379" max="5379" width="42.5703125" customWidth="1"/>
-    <col min="5380" max="5380" width="12.7109375" customWidth="1"/>
-    <col min="5381" max="5381" width="17.140625" customWidth="1"/>
-    <col min="5382" max="5382" width="18.28515625" customWidth="1"/>
-    <col min="5633" max="5633" width="15.28515625" customWidth="1"/>
-    <col min="5634" max="5634" width="16" customWidth="1"/>
-    <col min="5635" max="5635" width="42.5703125" customWidth="1"/>
-    <col min="5636" max="5636" width="12.7109375" customWidth="1"/>
-    <col min="5637" max="5637" width="17.140625" customWidth="1"/>
-    <col min="5638" max="5638" width="18.28515625" customWidth="1"/>
-    <col min="5889" max="5889" width="15.28515625" customWidth="1"/>
-    <col min="5890" max="5890" width="16" customWidth="1"/>
-    <col min="5891" max="5891" width="42.5703125" customWidth="1"/>
-    <col min="5892" max="5892" width="12.7109375" customWidth="1"/>
-    <col min="5893" max="5893" width="17.140625" customWidth="1"/>
-    <col min="5894" max="5894" width="18.28515625" customWidth="1"/>
-    <col min="6145" max="6145" width="15.28515625" customWidth="1"/>
-    <col min="6146" max="6146" width="16" customWidth="1"/>
-    <col min="6147" max="6147" width="42.5703125" customWidth="1"/>
-    <col min="6148" max="6148" width="12.7109375" customWidth="1"/>
-    <col min="6149" max="6149" width="17.140625" customWidth="1"/>
-    <col min="6150" max="6150" width="18.28515625" customWidth="1"/>
-    <col min="6401" max="6401" width="15.28515625" customWidth="1"/>
-    <col min="6402" max="6402" width="16" customWidth="1"/>
-    <col min="6403" max="6403" width="42.5703125" customWidth="1"/>
-    <col min="6404" max="6404" width="12.7109375" customWidth="1"/>
-    <col min="6405" max="6405" width="17.140625" customWidth="1"/>
-    <col min="6406" max="6406" width="18.28515625" customWidth="1"/>
-    <col min="6657" max="6657" width="15.28515625" customWidth="1"/>
-    <col min="6658" max="6658" width="16" customWidth="1"/>
-    <col min="6659" max="6659" width="42.5703125" customWidth="1"/>
-    <col min="6660" max="6660" width="12.7109375" customWidth="1"/>
-    <col min="6661" max="6661" width="17.140625" customWidth="1"/>
-    <col min="6662" max="6662" width="18.28515625" customWidth="1"/>
-    <col min="6913" max="6913" width="15.28515625" customWidth="1"/>
-    <col min="6914" max="6914" width="16" customWidth="1"/>
-    <col min="6915" max="6915" width="42.5703125" customWidth="1"/>
-    <col min="6916" max="6916" width="12.7109375" customWidth="1"/>
-    <col min="6917" max="6917" width="17.140625" customWidth="1"/>
-    <col min="6918" max="6918" width="18.28515625" customWidth="1"/>
-    <col min="7169" max="7169" width="15.28515625" customWidth="1"/>
-    <col min="7170" max="7170" width="16" customWidth="1"/>
-    <col min="7171" max="7171" width="42.5703125" customWidth="1"/>
-    <col min="7172" max="7172" width="12.7109375" customWidth="1"/>
-    <col min="7173" max="7173" width="17.140625" customWidth="1"/>
-    <col min="7174" max="7174" width="18.28515625" customWidth="1"/>
-    <col min="7425" max="7425" width="15.28515625" customWidth="1"/>
-    <col min="7426" max="7426" width="16" customWidth="1"/>
-    <col min="7427" max="7427" width="42.5703125" customWidth="1"/>
-    <col min="7428" max="7428" width="12.7109375" customWidth="1"/>
-    <col min="7429" max="7429" width="17.140625" customWidth="1"/>
-    <col min="7430" max="7430" width="18.28515625" customWidth="1"/>
-    <col min="7681" max="7681" width="15.28515625" customWidth="1"/>
-    <col min="7682" max="7682" width="16" customWidth="1"/>
-    <col min="7683" max="7683" width="42.5703125" customWidth="1"/>
-    <col min="7684" max="7684" width="12.7109375" customWidth="1"/>
-    <col min="7685" max="7685" width="17.140625" customWidth="1"/>
-    <col min="7686" max="7686" width="18.28515625" customWidth="1"/>
-    <col min="7937" max="7937" width="15.28515625" customWidth="1"/>
-    <col min="7938" max="7938" width="16" customWidth="1"/>
-    <col min="7939" max="7939" width="42.5703125" customWidth="1"/>
-    <col min="7940" max="7940" width="12.7109375" customWidth="1"/>
-    <col min="7941" max="7941" width="17.140625" customWidth="1"/>
-    <col min="7942" max="7942" width="18.28515625" customWidth="1"/>
-    <col min="8193" max="8193" width="15.28515625" customWidth="1"/>
-    <col min="8194" max="8194" width="16" customWidth="1"/>
-    <col min="8195" max="8195" width="42.5703125" customWidth="1"/>
-    <col min="8196" max="8196" width="12.7109375" customWidth="1"/>
-    <col min="8197" max="8197" width="17.140625" customWidth="1"/>
-    <col min="8198" max="8198" width="18.28515625" customWidth="1"/>
-    <col min="8449" max="8449" width="15.28515625" customWidth="1"/>
-    <col min="8450" max="8450" width="16" customWidth="1"/>
-    <col min="8451" max="8451" width="42.5703125" customWidth="1"/>
-    <col min="8452" max="8452" width="12.7109375" customWidth="1"/>
-    <col min="8453" max="8453" width="17.140625" customWidth="1"/>
-    <col min="8454" max="8454" width="18.28515625" customWidth="1"/>
-    <col min="8705" max="8705" width="15.28515625" customWidth="1"/>
-    <col min="8706" max="8706" width="16" customWidth="1"/>
-    <col min="8707" max="8707" width="42.5703125" customWidth="1"/>
-    <col min="8708" max="8708" width="12.7109375" customWidth="1"/>
-    <col min="8709" max="8709" width="17.140625" customWidth="1"/>
-    <col min="8710" max="8710" width="18.28515625" customWidth="1"/>
-    <col min="8961" max="8961" width="15.28515625" customWidth="1"/>
-    <col min="8962" max="8962" width="16" customWidth="1"/>
-    <col min="8963" max="8963" width="42.5703125" customWidth="1"/>
-    <col min="8964" max="8964" width="12.7109375" customWidth="1"/>
-    <col min="8965" max="8965" width="17.140625" customWidth="1"/>
-    <col min="8966" max="8966" width="18.28515625" customWidth="1"/>
-    <col min="9217" max="9217" width="15.28515625" customWidth="1"/>
-    <col min="9218" max="9218" width="16" customWidth="1"/>
-    <col min="9219" max="9219" width="42.5703125" customWidth="1"/>
-    <col min="9220" max="9220" width="12.7109375" customWidth="1"/>
-    <col min="9221" max="9221" width="17.140625" customWidth="1"/>
-    <col min="9222" max="9222" width="18.28515625" customWidth="1"/>
-    <col min="9473" max="9473" width="15.28515625" customWidth="1"/>
-    <col min="9474" max="9474" width="16" customWidth="1"/>
-    <col min="9475" max="9475" width="42.5703125" customWidth="1"/>
-    <col min="9476" max="9476" width="12.7109375" customWidth="1"/>
-    <col min="9477" max="9477" width="17.140625" customWidth="1"/>
-    <col min="9478" max="9478" width="18.28515625" customWidth="1"/>
-    <col min="9729" max="9729" width="15.28515625" customWidth="1"/>
-    <col min="9730" max="9730" width="16" customWidth="1"/>
-    <col min="9731" max="9731" width="42.5703125" customWidth="1"/>
-    <col min="9732" max="9732" width="12.7109375" customWidth="1"/>
-    <col min="9733" max="9733" width="17.140625" customWidth="1"/>
-    <col min="9734" max="9734" width="18.28515625" customWidth="1"/>
-    <col min="9985" max="9985" width="15.28515625" customWidth="1"/>
-    <col min="9986" max="9986" width="16" customWidth="1"/>
-    <col min="9987" max="9987" width="42.5703125" customWidth="1"/>
-    <col min="9988" max="9988" width="12.7109375" customWidth="1"/>
-    <col min="9989" max="9989" width="17.140625" customWidth="1"/>
-    <col min="9990" max="9990" width="18.28515625" customWidth="1"/>
-    <col min="10241" max="10241" width="15.28515625" customWidth="1"/>
-    <col min="10242" max="10242" width="16" customWidth="1"/>
-    <col min="10243" max="10243" width="42.5703125" customWidth="1"/>
-    <col min="10244" max="10244" width="12.7109375" customWidth="1"/>
-    <col min="10245" max="10245" width="17.140625" customWidth="1"/>
-    <col min="10246" max="10246" width="18.28515625" customWidth="1"/>
-    <col min="10497" max="10497" width="15.28515625" customWidth="1"/>
-    <col min="10498" max="10498" width="16" customWidth="1"/>
-    <col min="10499" max="10499" width="42.5703125" customWidth="1"/>
-    <col min="10500" max="10500" width="12.7109375" customWidth="1"/>
-    <col min="10501" max="10501" width="17.140625" customWidth="1"/>
-    <col min="10502" max="10502" width="18.28515625" customWidth="1"/>
-    <col min="10753" max="10753" width="15.28515625" customWidth="1"/>
-    <col min="10754" max="10754" width="16" customWidth="1"/>
-    <col min="10755" max="10755" width="42.5703125" customWidth="1"/>
-    <col min="10756" max="10756" width="12.7109375" customWidth="1"/>
-    <col min="10757" max="10757" width="17.140625" customWidth="1"/>
-    <col min="10758" max="10758" width="18.28515625" customWidth="1"/>
-    <col min="11009" max="11009" width="15.28515625" customWidth="1"/>
-    <col min="11010" max="11010" width="16" customWidth="1"/>
-    <col min="11011" max="11011" width="42.5703125" customWidth="1"/>
-    <col min="11012" max="11012" width="12.7109375" customWidth="1"/>
-    <col min="11013" max="11013" width="17.140625" customWidth="1"/>
-    <col min="11014" max="11014" width="18.28515625" customWidth="1"/>
-    <col min="11265" max="11265" width="15.28515625" customWidth="1"/>
-    <col min="11266" max="11266" width="16" customWidth="1"/>
-    <col min="11267" max="11267" width="42.5703125" customWidth="1"/>
-    <col min="11268" max="11268" width="12.7109375" customWidth="1"/>
-    <col min="11269" max="11269" width="17.140625" customWidth="1"/>
-    <col min="11270" max="11270" width="18.28515625" customWidth="1"/>
-    <col min="11521" max="11521" width="15.28515625" customWidth="1"/>
-    <col min="11522" max="11522" width="16" customWidth="1"/>
-    <col min="11523" max="11523" width="42.5703125" customWidth="1"/>
-    <col min="11524" max="11524" width="12.7109375" customWidth="1"/>
-    <col min="11525" max="11525" width="17.140625" customWidth="1"/>
-    <col min="11526" max="11526" width="18.28515625" customWidth="1"/>
-    <col min="11777" max="11777" width="15.28515625" customWidth="1"/>
-    <col min="11778" max="11778" width="16" customWidth="1"/>
-    <col min="11779" max="11779" width="42.5703125" customWidth="1"/>
-    <col min="11780" max="11780" width="12.7109375" customWidth="1"/>
-    <col min="11781" max="11781" width="17.140625" customWidth="1"/>
-    <col min="11782" max="11782" width="18.28515625" customWidth="1"/>
-    <col min="12033" max="12033" width="15.28515625" customWidth="1"/>
-    <col min="12034" max="12034" width="16" customWidth="1"/>
-    <col min="12035" max="12035" width="42.5703125" customWidth="1"/>
-    <col min="12036" max="12036" width="12.7109375" customWidth="1"/>
-    <col min="12037" max="12037" width="17.140625" customWidth="1"/>
-    <col min="12038" max="12038" width="18.28515625" customWidth="1"/>
-    <col min="12289" max="12289" width="15.28515625" customWidth="1"/>
-    <col min="12290" max="12290" width="16" customWidth="1"/>
-    <col min="12291" max="12291" width="42.5703125" customWidth="1"/>
-    <col min="12292" max="12292" width="12.7109375" customWidth="1"/>
-    <col min="12293" max="12293" width="17.140625" customWidth="1"/>
-    <col min="12294" max="12294" width="18.28515625" customWidth="1"/>
-    <col min="12545" max="12545" width="15.28515625" customWidth="1"/>
-    <col min="12546" max="12546" width="16" customWidth="1"/>
-    <col min="12547" max="12547" width="42.5703125" customWidth="1"/>
-    <col min="12548" max="12548" width="12.7109375" customWidth="1"/>
-    <col min="12549" max="12549" width="17.140625" customWidth="1"/>
-    <col min="12550" max="12550" width="18.28515625" customWidth="1"/>
-    <col min="12801" max="12801" width="15.28515625" customWidth="1"/>
-    <col min="12802" max="12802" width="16" customWidth="1"/>
-    <col min="12803" max="12803" width="42.5703125" customWidth="1"/>
-    <col min="12804" max="12804" width="12.7109375" customWidth="1"/>
-    <col min="12805" max="12805" width="17.140625" customWidth="1"/>
-    <col min="12806" max="12806" width="18.28515625" customWidth="1"/>
-    <col min="13057" max="13057" width="15.28515625" customWidth="1"/>
-    <col min="13058" max="13058" width="16" customWidth="1"/>
-    <col min="13059" max="13059" width="42.5703125" customWidth="1"/>
-    <col min="13060" max="13060" width="12.7109375" customWidth="1"/>
-    <col min="13061" max="13061" width="17.140625" customWidth="1"/>
-    <col min="13062" max="13062" width="18.28515625" customWidth="1"/>
-    <col min="13313" max="13313" width="15.28515625" customWidth="1"/>
-    <col min="13314" max="13314" width="16" customWidth="1"/>
-    <col min="13315" max="13315" width="42.5703125" customWidth="1"/>
-    <col min="13316" max="13316" width="12.7109375" customWidth="1"/>
-    <col min="13317" max="13317" width="17.140625" customWidth="1"/>
-    <col min="13318" max="13318" width="18.28515625" customWidth="1"/>
-    <col min="13569" max="13569" width="15.28515625" customWidth="1"/>
-    <col min="13570" max="13570" width="16" customWidth="1"/>
-    <col min="13571" max="13571" width="42.5703125" customWidth="1"/>
-    <col min="13572" max="13572" width="12.7109375" customWidth="1"/>
-    <col min="13573" max="13573" width="17.140625" customWidth="1"/>
-    <col min="13574" max="13574" width="18.28515625" customWidth="1"/>
-    <col min="13825" max="13825" width="15.28515625" customWidth="1"/>
-    <col min="13826" max="13826" width="16" customWidth="1"/>
-    <col min="13827" max="13827" width="42.5703125" customWidth="1"/>
-    <col min="13828" max="13828" width="12.7109375" customWidth="1"/>
-    <col min="13829" max="13829" width="17.140625" customWidth="1"/>
-    <col min="13830" max="13830" width="18.28515625" customWidth="1"/>
-    <col min="14081" max="14081" width="15.28515625" customWidth="1"/>
-    <col min="14082" max="14082" width="16" customWidth="1"/>
-    <col min="14083" max="14083" width="42.5703125" customWidth="1"/>
-    <col min="14084" max="14084" width="12.7109375" customWidth="1"/>
-    <col min="14085" max="14085" width="17.140625" customWidth="1"/>
-    <col min="14086" max="14086" width="18.28515625" customWidth="1"/>
-    <col min="14337" max="14337" width="15.28515625" customWidth="1"/>
-    <col min="14338" max="14338" width="16" customWidth="1"/>
-    <col min="14339" max="14339" width="42.5703125" customWidth="1"/>
-    <col min="14340" max="14340" width="12.7109375" customWidth="1"/>
-    <col min="14341" max="14341" width="17.140625" customWidth="1"/>
-    <col min="14342" max="14342" width="18.28515625" customWidth="1"/>
-    <col min="14593" max="14593" width="15.28515625" customWidth="1"/>
-    <col min="14594" max="14594" width="16" customWidth="1"/>
-    <col min="14595" max="14595" width="42.5703125" customWidth="1"/>
-    <col min="14596" max="14596" width="12.7109375" customWidth="1"/>
-    <col min="14597" max="14597" width="17.140625" customWidth="1"/>
-    <col min="14598" max="14598" width="18.28515625" customWidth="1"/>
-    <col min="14849" max="14849" width="15.28515625" customWidth="1"/>
-    <col min="14850" max="14850" width="16" customWidth="1"/>
-    <col min="14851" max="14851" width="42.5703125" customWidth="1"/>
-    <col min="14852" max="14852" width="12.7109375" customWidth="1"/>
-    <col min="14853" max="14853" width="17.140625" customWidth="1"/>
-    <col min="14854" max="14854" width="18.28515625" customWidth="1"/>
-    <col min="15105" max="15105" width="15.28515625" customWidth="1"/>
-    <col min="15106" max="15106" width="16" customWidth="1"/>
-    <col min="15107" max="15107" width="42.5703125" customWidth="1"/>
-    <col min="15108" max="15108" width="12.7109375" customWidth="1"/>
-    <col min="15109" max="15109" width="17.140625" customWidth="1"/>
-    <col min="15110" max="15110" width="18.28515625" customWidth="1"/>
-    <col min="15361" max="15361" width="15.28515625" customWidth="1"/>
-    <col min="15362" max="15362" width="16" customWidth="1"/>
-    <col min="15363" max="15363" width="42.5703125" customWidth="1"/>
-    <col min="15364" max="15364" width="12.7109375" customWidth="1"/>
-    <col min="15365" max="15365" width="17.140625" customWidth="1"/>
-    <col min="15366" max="15366" width="18.28515625" customWidth="1"/>
-    <col min="15617" max="15617" width="15.28515625" customWidth="1"/>
-    <col min="15618" max="15618" width="16" customWidth="1"/>
-    <col min="15619" max="15619" width="42.5703125" customWidth="1"/>
-    <col min="15620" max="15620" width="12.7109375" customWidth="1"/>
-    <col min="15621" max="15621" width="17.140625" customWidth="1"/>
-    <col min="15622" max="15622" width="18.28515625" customWidth="1"/>
-    <col min="15873" max="15873" width="15.28515625" customWidth="1"/>
-    <col min="15874" max="15874" width="16" customWidth="1"/>
-    <col min="15875" max="15875" width="42.5703125" customWidth="1"/>
-    <col min="15876" max="15876" width="12.7109375" customWidth="1"/>
-    <col min="15877" max="15877" width="17.140625" customWidth="1"/>
-    <col min="15878" max="15878" width="18.28515625" customWidth="1"/>
-    <col min="16129" max="16129" width="15.28515625" customWidth="1"/>
-    <col min="16130" max="16130" width="16" customWidth="1"/>
-    <col min="16131" max="16131" width="42.5703125" customWidth="1"/>
-    <col min="16132" max="16132" width="12.7109375" customWidth="1"/>
-    <col min="16133" max="16133" width="17.140625" customWidth="1"/>
-    <col min="16134" max="16134" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1271,30 +893,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1304,11 +926,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1317,10 +939,10 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
@@ -1638,7 +1260,7 @@
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="30"/>
@@ -1652,7 +1274,7 @@
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
@@ -1684,5 +1306,6 @@
     <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB5282-529D-41F0-8295-3F6FA36B65BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B465C4A-110F-4B0F-999C-EB8786042644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,6 +454,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -464,91 +545,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QU44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection sqref="A1:F44"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +882,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -893,30 +893,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -926,11 +926,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -939,14 +939,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -955,32 +955,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1196,114 +1196,114 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29" t="s">
+      <c r="C43" s="55"/>
+      <c r="D43" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B465C4A-110F-4B0F-999C-EB8786042644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8EB60-B7AA-4FAA-BC3F-F2C64CBE79B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -454,6 +457,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -471,84 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C44"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,10 +888,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -893,30 +899,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -926,11 +932,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -939,14 +945,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -955,32 +961,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1196,114 +1202,114 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="58" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD8EB60-B7AA-4FAA-BC3F-F2C64CBE79B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA1044-810C-4FAF-9655-58189812A4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,10 @@
     <t>OIC - LGMED Chief</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO III</t>
-  </si>
-  <si>
     <t>Regional Director</t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO IV</t>
   </si>
 </sst>
 </file>
@@ -457,6 +457,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -467,91 +548,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,8 +872,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +888,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -899,30 +899,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -932,11 +932,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -945,14 +945,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -961,32 +961,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1202,114 +1202,114 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="46"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA1044-810C-4FAF-9655-58189812A4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,13 +107,13 @@
     <t>Regional Director</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA, CESO IV</t>
+    <t>ARIEL O. IGLESIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
@@ -457,6 +456,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -474,84 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:F44"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +887,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -899,30 +898,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -932,11 +931,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -945,14 +944,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -961,32 +960,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1202,114 +1201,114 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="58" t="s">
+      <c r="C44" s="31"/>
+      <c r="D44" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -456,6 +456,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -473,84 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,10 +869,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,10 +887,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -898,30 +898,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -931,11 +931,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -944,14 +944,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -960,32 +960,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -1187,131 +1187,171 @@
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23" t="s">
+    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="24">
-        <f>SUM(F11:F35)</f>
+      <c r="F41" s="24">
+        <f>SUM(F11:F40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="49" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B48" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B49" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="58" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="23">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/library/export_pr.xlsx
+++ b/library/export_pr.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -456,6 +456,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -466,91 +547,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,10 +869,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,10 +887,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -898,30 +898,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -931,11 +931,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -944,14 +944,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -960,32 +960,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -1179,179 +1179,131 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23" t="s">
+    <row r="35" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="24">
-        <f>SUM(F11:F40)</f>
+      <c r="F35" s="24">
+        <f>SUM(F11:F34)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="54"/>
+    </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="43"/>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="A42" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B42" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="27" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B43" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="23">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>